--- a/files/09497_gt.xlsx
+++ b/files/09497_gt.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Gross Profit</t>
-  </si>
-  <si>
-    <t>Total Revenue</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1306,7 @@
   <dimension ref="C1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1322,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="3:4">
